--- a/biology/Zoologie/Conus_garywilsoni/Conus_garywilsoni.xlsx
+++ b/biology/Zoologie/Conus_garywilsoni/Conus_garywilsoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus garywilsoni est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille d'une coquille adulte varie entre 15 mm et 21 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est endémique à l'Australie et peut être trouvée au large du Cap Nord-Ouest, Australie-Occidentale.
 </t>
@@ -576,13 +592,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus garywilsoni a été décrite pour la première fois en 2004 par les malacologistes Felix Lorenz (d)[1] et Hugh Morrison[2] dans la publication intitulée « La Conchiglia »[3],[4].
-Synonymes
-Calamiconus garywilsoni (Lorenz &amp; H. Morrison, 2004) · non accepté
-Conus (Lividoconus) garywilsoni Lorenz &amp; H. Morrison, 2004 · appellation alternative
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus garywilsoni dans les principales bases sont les suivants :
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus garywilsoni a été décrite pour la première fois en 2004 par les malacologistes Felix Lorenz (d) et Hugh Morrison dans la publication intitulée « La Conchiglia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_garywilsoni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_garywilsoni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Calamiconus garywilsoni (Lorenz &amp; H. Morrison, 2004) · non accepté
+Conus (Lividoconus) garywilsoni Lorenz &amp; H. Morrison, 2004 · appellation alternative</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_garywilsoni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_garywilsoni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus garywilsoni dans les principales bases sont les suivants :
 AFD : Conus_(Lividoconus)_garywilsoni - CoL : 5ZXR9 - GBIF : 5728177 - IRMNG : 11697419 - WoRMS : 389129
 </t>
         </is>
